--- a/Day2Ex2/Default.xlsx
+++ b/Day2Ex2/Default.xlsx
@@ -162,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -170,29 +170,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -491,36 +475,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="18.02734375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customFormat="1">
+    <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
